--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhavesh\RPA Practice\Generate Yearly Report_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8D0739-0A6F-46A8-A94F-9A9BD821DA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F57FF3-8354-4448-871A-F812BC83C4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>Shared</t>
-  </si>
-  <si>
-    <t>D:\Bhavesh\RPA Practice\Generate Yearly Report_Performer\Data\MonthlyReports\YearlyReport.csv</t>
   </si>
   <si>
     <t>D:\Bhavesh\RPA Practice\Generate Yearly Report_Performer\Data\MonthlyReports\</t>
@@ -570,7 +567,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -677,7 +674,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
